--- a/修論/発表スライド/w_model.xlsx
+++ b/修論/発表スライド/w_model.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/修論/発表スライド/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\発表スライド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7EDC41-6A58-3E43-80EC-E6DC77C900F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B53DED-992C-4590-973E-140238DADF1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="12660" xr2:uid="{A0F2CA65-957B-498E-A101-ADAE12A8579B}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="24795" windowHeight="12660" activeTab="1" xr2:uid="{A0F2CA65-957B-498E-A101-ADAE12A8579B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$5:$D$304</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$5:$E$304</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$5:$J$304</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$5:$K$304</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$5:$O$304</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$Q$5:$Q$304</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$R$5:$R$304</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>I</t>
     <phoneticPr fontId="1"/>
@@ -72,12 +65,25 @@
     <t>J</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Jth (kA/cm^2)</t>
+  </si>
+  <si>
+    <t>Sigma (A)</t>
+  </si>
+  <si>
+    <t>w'(um)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +99,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,12 +114,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -116,9 +143,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24928,13 +24961,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23838E47-17E5-431D-9D3F-EE77E224AF83}">
   <dimension ref="D3:R304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="M46" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="4:18">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -24946,7 +24979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -24978,7 +25011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D5">
         <f>(E5+F5)*G5*H5</f>
         <v>102</v>
@@ -25027,7 +25060,7 @@
         <v>100.07996802557443</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D6">
         <f t="shared" ref="D6:D69" si="0">(E6+F6)*G6*H6</f>
         <v>104</v>
@@ -25076,7 +25109,7 @@
         <v>100.31948963187563</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D7">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -25125,7 +25158,7 @@
         <v>100.71742649611338</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -25174,7 +25207,7 @@
         <v>101.27191120937731</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -25223,7 +25256,7 @@
         <v>101.9803902718557</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -25272,7 +25305,7 @@
         <v>102.83968105745953</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -25321,7 +25354,7 @@
         <v>103.84603988597736</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -25370,7 +25403,7 @@
         <v>104.9952379872535</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -25419,7 +25452,7 @@
         <v>106.28264204469139</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -25468,7 +25501,7 @@
         <v>107.70329614269008</v>
       </c>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -25517,7 +25550,7 @@
         <v>109.2520022699813</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -25566,7 +25599,7 @@
         <v>110.92339699089638</v>
       </c>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -25615,7 +25648,7 @@
         <v>112.71202242884297</v>
       </c>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -25664,7 +25697,7 @@
         <v>114.61239025515522</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -25713,7 +25746,7 @@
         <v>116.61903789690601</v>
       </c>
     </row>
-    <row r="20" spans="4:18">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -25762,7 +25795,7 @@
         <v>118.72657663724664</v>
       </c>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -25811,7 +25844,7 @@
         <v>120.9297316626478</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -25860,7 +25893,7 @@
         <v>123.2233744059949</v>
       </c>
     </row>
-    <row r="23" spans="4:18">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>138</v>
@@ -25909,7 +25942,7 @@
         <v>125.60254774486066</v>
       </c>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -25958,7 +25991,7 @@
         <v>128.06248474865697</v>
       </c>
     </row>
-    <row r="25" spans="4:18">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -26007,7 +26040,7 @@
         <v>130.59862173851607</v>
       </c>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -26056,7 +26089,7 @@
         <v>133.2066064427737</v>
       </c>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>146</v>
@@ -26105,7 +26138,7 @@
         <v>135.88230201170424</v>
       </c>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -26154,7 +26187,7 @@
         <v>138.62178760930766</v>
       </c>
     </row>
-    <row r="29" spans="4:18">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -26203,7 +26236,7 @@
         <v>141.42135623730951</v>
       </c>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>152</v>
@@ -26252,7 +26285,7 @@
         <v>144.27751037497146</v>
       </c>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -26301,7 +26334,7 @@
         <v>147.18695594379278</v>
       </c>
     </row>
-    <row r="32" spans="4:18">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>156</v>
@@ -26350,7 +26383,7 @@
         <v>150.14659503298768</v>
       </c>
     </row>
-    <row r="33" spans="4:18">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>158</v>
@@ -26399,7 +26432,7 @@
         <v>153.15351775261317</v>
       </c>
     </row>
-    <row r="34" spans="4:18">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -26448,7 +26481,7 @@
         <v>156.20499351813308</v>
       </c>
     </row>
-    <row r="35" spans="4:18">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -26497,7 +26530,7 @@
         <v>159.29846201391902</v>
       </c>
     </row>
-    <row r="36" spans="4:18">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>164</v>
@@ -26546,7 +26579,7 @@
         <v>162.43152403397562</v>
       </c>
     </row>
-    <row r="37" spans="4:18">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>166</v>
@@ -26595,7 +26628,7 @@
         <v>165.60193235587562</v>
       </c>
     </row>
-    <row r="38" spans="4:18">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>168</v>
@@ -26644,7 +26677,7 @@
         <v>168.80758276807353</v>
       </c>
     </row>
-    <row r="39" spans="4:18">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -26693,7 +26726,7 @@
         <v>172.04650534085255</v>
       </c>
     </row>
-    <row r="40" spans="4:18">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>172</v>
@@ -26742,7 +26775,7 @@
         <v>175.31685600648902</v>
       </c>
     </row>
-    <row r="41" spans="4:18">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>174</v>
@@ -26791,7 +26824,7 @@
         <v>178.61690849412886</v>
       </c>
     </row>
-    <row r="42" spans="4:18">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -26840,7 +26873,7 @@
         <v>181.94504664870655</v>
       </c>
     </row>
-    <row r="43" spans="4:18">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>178</v>
@@ -26889,7 +26922,7 @@
         <v>185.29975715040752</v>
       </c>
     </row>
-    <row r="44" spans="4:18">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -26938,7 +26971,7 @@
         <v>188.67962264113208</v>
       </c>
     </row>
-    <row r="45" spans="4:18">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>182</v>
@@ -26987,7 +27020,7 @@
         <v>192.08331525668751</v>
       </c>
     </row>
-    <row r="46" spans="4:18">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>184</v>
@@ -27036,7 +27069,7 @@
         <v>195.50959055759898</v>
       </c>
     </row>
-    <row r="47" spans="4:18">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>186</v>
@@ -27085,7 +27118,7 @@
         <v>198.9572818471342</v>
       </c>
     </row>
-    <row r="48" spans="4:18">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>188</v>
@@ -27134,7 +27167,7 @@
         <v>202.42529486207991</v>
       </c>
     </row>
-    <row r="49" spans="4:18">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -27183,7 +27216,7 @@
         <v>205.91260281974002</v>
       </c>
     </row>
-    <row r="50" spans="4:18">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>192</v>
@@ -27232,7 +27265,7 @@
         <v>209.41824180333478</v>
       </c>
     </row>
-    <row r="51" spans="4:18">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>194</v>
@@ -27281,7 +27314,7 @@
         <v>212.94130646729863</v>
       </c>
     </row>
-    <row r="52" spans="4:18">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>196</v>
@@ -27330,7 +27363,7 @@
         <v>216.48094604375694</v>
       </c>
     </row>
-    <row r="53" spans="4:18">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>198</v>
@@ -27379,7 +27412,7 @@
         <v>220.03636063160107</v>
       </c>
     </row>
-    <row r="54" spans="4:18">
+    <row r="54" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -27428,7 +27461,7 @@
         <v>223.60679774997897</v>
       </c>
     </row>
-    <row r="55" spans="4:18">
+    <row r="55" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>202</v>
@@ -27477,7 +27510,7 @@
         <v>227.19154913860683</v>
       </c>
     </row>
-    <row r="56" spans="4:18">
+    <row r="56" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -27526,7 +27559,7 @@
         <v>230.7899477880265</v>
       </c>
     </row>
-    <row r="57" spans="4:18">
+    <row r="57" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>206</v>
@@ -27575,7 +27608,7 @@
         <v>234.40136518373779</v>
       </c>
     </row>
-    <row r="58" spans="4:18">
+    <row r="58" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>208</v>
@@ -27624,7 +27657,7 @@
         <v>238.02520874898943</v>
       </c>
     </row>
-    <row r="59" spans="4:18">
+    <row r="59" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -27673,7 +27706,7 @@
         <v>241.66091947189145</v>
       </c>
     </row>
-    <row r="60" spans="4:18">
+    <row r="60" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>212</v>
@@ -27722,7 +27755,7 @@
         <v>245.30796970339142</v>
       </c>
     </row>
-    <row r="61" spans="4:18">
+    <row r="61" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>214</v>
@@ -27771,7 +27804,7 @@
         <v>248.96586111352696</v>
       </c>
     </row>
-    <row r="62" spans="4:18">
+    <row r="62" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>216</v>
@@ -27820,7 +27853,7 @@
         <v>252.63412279421004</v>
       </c>
     </row>
-    <row r="63" spans="4:18">
+    <row r="63" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -27869,7 +27902,7 @@
         <v>256.31230949761272</v>
       </c>
     </row>
-    <row r="64" spans="4:18">
+    <row r="64" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -27918,7 +27951,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="4:18">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D65">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -27967,7 +28000,7 @@
         <v>263.69679558159214</v>
       </c>
     </row>
-    <row r="66" spans="4:18">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D66">
         <f t="shared" si="0"/>
         <v>224</v>
@@ -28016,7 +28049,7 @@
         <v>267.40231861373229</v>
       </c>
     </row>
-    <row r="67" spans="4:18">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D67">
         <f t="shared" si="0"/>
         <v>226</v>
@@ -28065,7 +28098,7 @@
         <v>271.1162112452887</v>
       </c>
     </row>
-    <row r="68" spans="4:18">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D68">
         <f t="shared" si="0"/>
         <v>228</v>
@@ -28114,7 +28147,7 @@
         <v>274.83813418083014</v>
       </c>
     </row>
-    <row r="69" spans="4:18">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D69">
         <f t="shared" si="0"/>
         <v>230</v>
@@ -28163,7 +28196,7 @@
         <v>278.56776554368241</v>
       </c>
     </row>
-    <row r="70" spans="4:18">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D70">
         <f t="shared" ref="D70:D133" si="5">(E70+F70)*G70*H70</f>
         <v>232</v>
@@ -28212,7 +28245,7 @@
         <v>282.30479981750221</v>
       </c>
     </row>
-    <row r="71" spans="4:18">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D71">
         <f t="shared" si="5"/>
         <v>234</v>
@@ -28261,7 +28294,7 @@
         <v>286.04894686049801</v>
       </c>
     </row>
-    <row r="72" spans="4:18">
+    <row r="72" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D72">
         <f t="shared" si="5"/>
         <v>236</v>
@@ -28310,7 +28343,7 @@
         <v>289.7999309868793</v>
       </c>
     </row>
-    <row r="73" spans="4:18">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D73">
         <f t="shared" si="5"/>
         <v>238</v>
@@ -28359,7 +28392,7 @@
         <v>293.55749011054036</v>
       </c>
     </row>
-    <row r="74" spans="4:18">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D74">
         <f t="shared" si="5"/>
         <v>240</v>
@@ -28408,7 +28441,7 @@
         <v>297.3213749463701</v>
       </c>
     </row>
-    <row r="75" spans="4:18">
+    <row r="75" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D75">
         <f t="shared" si="5"/>
         <v>242</v>
@@ -28457,7 +28490,7 @@
         <v>301.09134826494102</v>
       </c>
     </row>
-    <row r="76" spans="4:18">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D76">
         <f t="shared" si="5"/>
         <v>244</v>
@@ -28506,7 +28539,7 @@
         <v>304.86718419665965</v>
       </c>
     </row>
-    <row r="77" spans="4:18">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D77">
         <f t="shared" si="5"/>
         <v>246</v>
@@ -28555,7 +28588,7 @@
         <v>308.6486675817668</v>
       </c>
     </row>
-    <row r="78" spans="4:18">
+    <row r="78" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D78">
         <f t="shared" si="5"/>
         <v>248</v>
@@ -28604,7 +28637,7 @@
         <v>312.43559336285614</v>
       </c>
     </row>
-    <row r="79" spans="4:18">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D79">
         <f t="shared" si="5"/>
         <v>250</v>
@@ -28653,7 +28686,7 @@
         <v>316.22776601683796</v>
       </c>
     </row>
-    <row r="80" spans="4:18">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D80">
         <f t="shared" si="5"/>
         <v>252</v>
@@ -28702,7 +28735,7 @@
         <v>320.02499902351377</v>
       </c>
     </row>
-    <row r="81" spans="4:18">
+    <row r="81" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D81">
         <f t="shared" si="5"/>
         <v>254</v>
@@ -28751,7 +28784,7 @@
         <v>323.82711436814554</v>
       </c>
     </row>
-    <row r="82" spans="4:18">
+    <row r="82" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D82">
         <f t="shared" si="5"/>
         <v>256</v>
@@ -28800,7 +28833,7 @@
         <v>327.63394207560361</v>
       </c>
     </row>
-    <row r="83" spans="4:18">
+    <row r="83" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D83">
         <f t="shared" si="5"/>
         <v>258</v>
@@ -28849,7 +28882,7 @@
         <v>331.44531977386555</v>
       </c>
     </row>
-    <row r="84" spans="4:18">
+    <row r="84" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D84">
         <f t="shared" si="5"/>
         <v>260</v>
@@ -28898,7 +28931,7 @@
         <v>335.26109228480419</v>
       </c>
     </row>
-    <row r="85" spans="4:18">
+    <row r="85" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D85">
         <f t="shared" si="5"/>
         <v>262</v>
@@ -28947,7 +28980,7 @@
         <v>339.08111124036384</v>
       </c>
     </row>
-    <row r="86" spans="4:18">
+    <row r="86" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D86">
         <f t="shared" si="5"/>
         <v>264</v>
@@ -28996,7 +29029,7 @@
         <v>342.90523472236464</v>
       </c>
     </row>
-    <row r="87" spans="4:18">
+    <row r="87" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D87">
         <f t="shared" si="5"/>
         <v>266</v>
@@ -29045,7 +29078,7 @@
         <v>346.73332692430938</v>
       </c>
     </row>
-    <row r="88" spans="4:18">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D88">
         <f t="shared" si="5"/>
         <v>268</v>
@@ -29094,7 +29127,7 @@
         <v>350.56525783368778</v>
       </c>
     </row>
-    <row r="89" spans="4:18">
+    <row r="89" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D89">
         <f t="shared" si="5"/>
         <v>270</v>
@@ -29143,7 +29176,7 @@
         <v>354.40090293338699</v>
       </c>
     </row>
-    <row r="90" spans="4:18">
+    <row r="90" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D90">
         <f t="shared" si="5"/>
         <v>272</v>
@@ -29192,7 +29225,7 @@
         <v>358.24014292091834</v>
       </c>
     </row>
-    <row r="91" spans="4:18">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D91">
         <f t="shared" si="5"/>
         <v>274</v>
@@ -29241,7 +29274,7 @@
         <v>362.08286344426739</v>
       </c>
     </row>
-    <row r="92" spans="4:18">
+    <row r="92" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D92">
         <f t="shared" si="5"/>
         <v>276</v>
@@ -29290,7 +29323,7 @@
         <v>365.92895485326108</v>
       </c>
     </row>
-    <row r="93" spans="4:18">
+    <row r="93" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D93">
         <f t="shared" si="5"/>
         <v>278</v>
@@ -29339,7 +29372,7 @@
         <v>369.7783119654261</v>
       </c>
     </row>
-    <row r="94" spans="4:18">
+    <row r="94" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D94">
         <f t="shared" si="5"/>
         <v>280</v>
@@ -29388,7 +29421,7 @@
         <v>373.63083384538811</v>
       </c>
     </row>
-    <row r="95" spans="4:18">
+    <row r="95" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D95">
         <f t="shared" si="5"/>
         <v>282</v>
@@ -29437,7 +29470,7 @@
         <v>377.48642359692883</v>
       </c>
     </row>
-    <row r="96" spans="4:18">
+    <row r="96" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D96">
         <f t="shared" si="5"/>
         <v>284</v>
@@ -29486,7 +29519,7 @@
         <v>381.34498816688284</v>
       </c>
     </row>
-    <row r="97" spans="4:18">
+    <row r="97" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D97">
         <f t="shared" si="5"/>
         <v>286</v>
@@ -29535,7 +29568,7 @@
         <v>385.20643816011176</v>
       </c>
     </row>
-    <row r="98" spans="4:18">
+    <row r="98" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D98">
         <f t="shared" si="5"/>
         <v>288</v>
@@ -29584,7 +29617,7 @@
         <v>389.07068766485094</v>
       </c>
     </row>
-    <row r="99" spans="4:18">
+    <row r="99" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D99">
         <f t="shared" si="5"/>
         <v>290</v>
@@ -29633,7 +29666,7 @@
         <v>392.93765408777</v>
       </c>
     </row>
-    <row r="100" spans="4:18">
+    <row r="100" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D100">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -29682,7 +29715,7 @@
         <v>396.80725799813695</v>
       </c>
     </row>
-    <row r="101" spans="4:18">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D101">
         <f t="shared" si="5"/>
         <v>294</v>
@@ -29731,7 +29764,7 @@
         <v>400.6794229805169</v>
       </c>
     </row>
-    <row r="102" spans="4:18">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D102">
         <f t="shared" si="5"/>
         <v>296</v>
@@ -29780,7 +29813,7 @@
         <v>404.55407549547687</v>
       </c>
     </row>
-    <row r="103" spans="4:18">
+    <row r="103" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D103">
         <f t="shared" si="5"/>
         <v>298</v>
@@ -29829,7 +29862,7 @@
         <v>408.43114474780202</v>
       </c>
     </row>
-    <row r="104" spans="4:18">
+    <row r="104" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D104">
         <f t="shared" si="5"/>
         <v>300</v>
@@ -29878,7 +29911,7 @@
         <v>412.31056256176606</v>
       </c>
     </row>
-    <row r="105" spans="4:18">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D105">
         <f t="shared" si="5"/>
         <v>302</v>
@@ -29927,7 +29960,7 @@
         <v>416.19226326302606</v>
       </c>
     </row>
-    <row r="106" spans="4:18">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D106">
         <f t="shared" si="5"/>
         <v>304</v>
@@ -29976,7 +30009,7 @@
         <v>420.07618356674305</v>
       </c>
     </row>
-    <row r="107" spans="4:18">
+    <row r="107" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D107">
         <f t="shared" si="5"/>
         <v>306</v>
@@ -30025,7 +30058,7 @@
         <v>423.96226247155533</v>
       </c>
     </row>
-    <row r="108" spans="4:18">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D108">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -30074,7 +30107,7 @@
         <v>427.85044115905737</v>
       </c>
     </row>
-    <row r="109" spans="4:18">
+    <row r="109" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D109">
         <f t="shared" si="5"/>
         <v>310</v>
@@ -30123,7 +30156,7 @@
         <v>431.74066289845808</v>
       </c>
     </row>
-    <row r="110" spans="4:18">
+    <row r="110" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D110">
         <f t="shared" si="5"/>
         <v>312</v>
@@ -30172,7 +30205,7 @@
         <v>435.63287295611656</v>
       </c>
     </row>
-    <row r="111" spans="4:18">
+    <row r="111" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D111">
         <f t="shared" si="5"/>
         <v>314</v>
@@ -30221,7 +30254,7 @@
         <v>439.52701850967026</v>
       </c>
     </row>
-    <row r="112" spans="4:18">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D112">
         <f t="shared" si="5"/>
         <v>316</v>
@@ -30270,7 +30303,7 @@
         <v>443.42304856649031</v>
       </c>
     </row>
-    <row r="113" spans="4:18">
+    <row r="113" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D113">
         <f t="shared" si="5"/>
         <v>318</v>
@@ -30319,7 +30352,7 @@
         <v>447.3209138862166</v>
       </c>
     </row>
-    <row r="114" spans="4:18">
+    <row r="114" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D114">
         <f t="shared" si="5"/>
         <v>320</v>
@@ -30368,7 +30401,7 @@
         <v>451.22056690713913</v>
       </c>
     </row>
-    <row r="115" spans="4:18">
+    <row r="115" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D115">
         <f t="shared" si="5"/>
         <v>322</v>
@@ -30417,7 +30450,7 @@
         <v>455.12196167620829</v>
       </c>
     </row>
-    <row r="116" spans="4:18">
+    <row r="116" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D116">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -30466,7 +30499,7 @@
         <v>459.02505378247059</v>
       </c>
     </row>
-    <row r="117" spans="4:18">
+    <row r="117" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D117">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -30515,7 +30548,7 @@
         <v>462.92980029373786</v>
       </c>
     </row>
-    <row r="118" spans="4:18">
+    <row r="118" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D118">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -30564,7 +30597,7 @@
         <v>466.83615969631143</v>
       </c>
     </row>
-    <row r="119" spans="4:18">
+    <row r="119" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D119">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -30613,7 +30646,7 @@
         <v>470.7440918375928</v>
       </c>
     </row>
-    <row r="120" spans="4:18">
+    <row r="120" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D120">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -30662,7 +30695,7 @@
         <v>474.65355787142266</v>
       </c>
     </row>
-    <row r="121" spans="4:18">
+    <row r="121" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D121">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -30711,7 +30744,7 @@
         <v>478.56452020600108</v>
       </c>
     </row>
-    <row r="122" spans="4:18">
+    <row r="122" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D122">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -30760,7 +30793,7 @@
         <v>482.47694245424827</v>
       </c>
     </row>
-    <row r="123" spans="4:18">
+    <row r="123" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D123">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -30809,7 +30842,7 @@
         <v>486.39078938647674</v>
       </c>
     </row>
-    <row r="124" spans="4:18">
+    <row r="124" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D124">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -30858,7 +30891,7 @@
         <v>490.3060268852505</v>
       </c>
     </row>
-    <row r="125" spans="4:18">
+    <row r="125" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D125">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -30907,7 +30940,7 @@
         <v>494.2226219023164</v>
       </c>
     </row>
-    <row r="126" spans="4:18">
+    <row r="126" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D126">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -30956,7 +30989,7 @@
         <v>498.14054241749886</v>
       </c>
     </row>
-    <row r="127" spans="4:18">
+    <row r="127" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D127">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -31005,7 +31038,7 @@
         <v>502.05975739945541</v>
       </c>
     </row>
-    <row r="128" spans="4:18">
+    <row r="128" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D128">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -31054,7 +31087,7 @@
         <v>505.98023676819633</v>
       </c>
     </row>
-    <row r="129" spans="4:18">
+    <row r="129" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D129">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -31103,7 +31136,7 @@
         <v>509.90195135927848</v>
       </c>
     </row>
-    <row r="130" spans="4:18">
+    <row r="130" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D130">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -31152,7 +31185,7 @@
         <v>513.8248728895868</v>
       </c>
     </row>
-    <row r="131" spans="4:18">
+    <row r="131" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D131">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -31201,7 +31234,7 @@
         <v>517.7489739246231</v>
       </c>
     </row>
-    <row r="132" spans="4:18">
+    <row r="132" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D132">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -31250,7 +31283,7 @@
         <v>521.67422784722646</v>
       </c>
     </row>
-    <row r="133" spans="4:18">
+    <row r="133" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D133">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -31299,7 +31332,7 @@
         <v>525.60060882765345</v>
       </c>
     </row>
-    <row r="134" spans="4:18">
+    <row r="134" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D134">
         <f t="shared" ref="D134:D197" si="10">(E134+F134)*G134*H134</f>
         <v>360</v>
@@ -31348,7 +31381,7 @@
         <v>529.52809179494909</v>
       </c>
     </row>
-    <row r="135" spans="4:18">
+    <row r="135" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D135">
         <f t="shared" si="10"/>
         <v>362</v>
@@ -31397,7 +31430,7 @@
         <v>533.45665240954679</v>
       </c>
     </row>
-    <row r="136" spans="4:18">
+    <row r="136" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D136">
         <f t="shared" si="10"/>
         <v>364</v>
@@ -31446,7 +31479,7 @@
         <v>537.38626703703551</v>
       </c>
     </row>
-    <row r="137" spans="4:18">
+    <row r="137" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D137">
         <f t="shared" si="10"/>
         <v>366</v>
@@ -31495,7 +31528,7 @@
         <v>541.31691272303692</v>
       </c>
     </row>
-    <row r="138" spans="4:18">
+    <row r="138" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D138">
         <f t="shared" si="10"/>
         <v>368</v>
@@ -31544,7 +31577,7 @@
         <v>545.24856716913985</v>
       </c>
     </row>
-    <row r="139" spans="4:18">
+    <row r="139" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D139">
         <f t="shared" si="10"/>
         <v>370</v>
@@ -31593,7 +31626,7 @@
         <v>549.18120870983921</v>
       </c>
     </row>
-    <row r="140" spans="4:18">
+    <row r="140" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D140">
         <f t="shared" si="10"/>
         <v>372</v>
@@ -31642,7 +31675,7 @@
         <v>553.11481629043351</v>
       </c>
     </row>
-    <row r="141" spans="4:18">
+    <row r="141" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D141">
         <f t="shared" si="10"/>
         <v>374</v>
@@ -31691,7 +31724,7 @@
         <v>557.04936944583289</v>
       </c>
     </row>
-    <row r="142" spans="4:18">
+    <row r="142" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D142">
         <f t="shared" si="10"/>
         <v>376</v>
@@ -31740,7 +31773,7 @@
         <v>560.98484828023652</v>
       </c>
     </row>
-    <row r="143" spans="4:18">
+    <row r="143" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D143">
         <f t="shared" si="10"/>
         <v>378</v>
@@ -31789,7 +31822,7 @@
         <v>564.92123344763741</v>
       </c>
     </row>
-    <row r="144" spans="4:18">
+    <row r="144" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D144">
         <f t="shared" si="10"/>
         <v>380</v>
@@ -31838,7 +31871,7 @@
         <v>568.85850613311572</v>
       </c>
     </row>
-    <row r="145" spans="4:18">
+    <row r="145" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D145">
         <f t="shared" si="10"/>
         <v>382</v>
@@ -31887,7 +31920,7 @@
         <v>572.79664803488504</v>
       </c>
     </row>
-    <row r="146" spans="4:18">
+    <row r="146" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D146">
         <f t="shared" si="10"/>
         <v>384</v>
@@ -31936,7 +31969,7 @@
         <v>576.735641347056</v>
       </c>
     </row>
-    <row r="147" spans="4:18">
+    <row r="147" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D147">
         <f t="shared" si="10"/>
         <v>386</v>
@@ -31985,7 +32018,7 @@
         <v>580.67546874308368</v>
       </c>
     </row>
-    <row r="148" spans="4:18">
+    <row r="148" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D148">
         <f t="shared" si="10"/>
         <v>388</v>
@@ -32034,7 +32067,7 @@
         <v>584.6161133598697</v>
       </c>
     </row>
-    <row r="149" spans="4:18">
+    <row r="149" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D149">
         <f t="shared" si="10"/>
         <v>390</v>
@@ -32083,7 +32116,7 @@
         <v>588.55755878248647</v>
       </c>
     </row>
-    <row r="150" spans="4:18">
+    <row r="150" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D150">
         <f t="shared" si="10"/>
         <v>392</v>
@@ -32132,7 +32165,7 @@
         <v>592.49978902949829</v>
       </c>
     </row>
-    <row r="151" spans="4:18">
+    <row r="151" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D151">
         <f t="shared" si="10"/>
         <v>394</v>
@@ -32181,7 +32214,7 @@
         <v>596.44278853885055</v>
       </c>
     </row>
-    <row r="152" spans="4:18">
+    <row r="152" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D152">
         <f t="shared" si="10"/>
         <v>396</v>
@@ -32230,7 +32263,7 @@
         <v>600.38654215430245</v>
       </c>
     </row>
-    <row r="153" spans="4:18">
+    <row r="153" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D153">
         <f t="shared" si="10"/>
         <v>398</v>
@@ -32279,7 +32312,7 @@
         <v>604.33103511237948</v>
       </c>
     </row>
-    <row r="154" spans="4:18">
+    <row r="154" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D154">
         <f t="shared" si="10"/>
         <v>400</v>
@@ -32328,7 +32361,7 @@
         <v>608.27625302982199</v>
       </c>
     </row>
-    <row r="155" spans="4:18">
+    <row r="155" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D155">
         <f t="shared" si="10"/>
         <v>402</v>
@@ -32377,7 +32410,7 @@
         <v>612.22218189150908</v>
       </c>
     </row>
-    <row r="156" spans="4:18">
+    <row r="156" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D156">
         <f t="shared" si="10"/>
         <v>404</v>
@@ -32426,7 +32459,7 @@
         <v>616.168808038836</v>
       </c>
     </row>
-    <row r="157" spans="4:18">
+    <row r="157" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D157">
         <f t="shared" si="10"/>
         <v>406</v>
@@ -32475,7 +32508,7 @@
         <v>620.11611815852677</v>
       </c>
     </row>
-    <row r="158" spans="4:18">
+    <row r="158" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D158">
         <f t="shared" si="10"/>
         <v>408</v>
@@ -32524,7 +32557,7 @@
         <v>624.06409927186166</v>
       </c>
     </row>
-    <row r="159" spans="4:18">
+    <row r="159" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D159">
         <f t="shared" si="10"/>
         <v>410</v>
@@ -32573,7 +32606,7 @@
         <v>628.01273872430329</v>
       </c>
     </row>
-    <row r="160" spans="4:18">
+    <row r="160" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D160">
         <f t="shared" si="10"/>
         <v>412</v>
@@ -32622,7 +32655,7 @@
         <v>631.96202417550376</v>
       </c>
     </row>
-    <row r="161" spans="4:18">
+    <row r="161" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D161">
         <f t="shared" si="10"/>
         <v>414</v>
@@ -32671,7 +32704,7 @@
         <v>635.91194358967653</v>
       </c>
     </row>
-    <row r="162" spans="4:18">
+    <row r="162" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D162">
         <f t="shared" si="10"/>
         <v>416</v>
@@ -32720,7 +32753,7 @@
         <v>639.86248522631797</v>
       </c>
     </row>
-    <row r="163" spans="4:18">
+    <row r="163" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D163">
         <f t="shared" si="10"/>
         <v>418</v>
@@ -32769,7 +32802,7 @@
         <v>643.81363763126365</v>
       </c>
     </row>
-    <row r="164" spans="4:18">
+    <row r="164" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D164">
         <f t="shared" si="10"/>
         <v>420</v>
@@ -32818,7 +32851,7 @@
         <v>647.76538962806592</v>
       </c>
     </row>
-    <row r="165" spans="4:18">
+    <row r="165" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D165">
         <f t="shared" si="10"/>
         <v>422</v>
@@ -32867,7 +32900,7 @@
         <v>651.71773030967938</v>
       </c>
     </row>
-    <row r="166" spans="4:18">
+    <row r="166" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D166">
         <f t="shared" si="10"/>
         <v>424</v>
@@ -32916,7 +32949,7 @@
         <v>655.67064903044115</v>
       </c>
     </row>
-    <row r="167" spans="4:18">
+    <row r="167" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D167">
         <f t="shared" si="10"/>
         <v>426</v>
@@ -32965,7 +32998,7 @@
         <v>659.62413539833426</v>
       </c>
     </row>
-    <row r="168" spans="4:18">
+    <row r="168" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D168">
         <f t="shared" si="10"/>
         <v>428</v>
@@ -33014,7 +33047,7 @@
         <v>663.57817926752227</v>
       </c>
     </row>
-    <row r="169" spans="4:18">
+    <row r="169" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D169">
         <f t="shared" si="10"/>
         <v>430</v>
@@ -33063,7 +33096,7 @@
         <v>667.53277073114543</v>
       </c>
     </row>
-    <row r="170" spans="4:18">
+    <row r="170" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D170">
         <f t="shared" si="10"/>
         <v>432</v>
@@ -33112,7 +33145,7 @@
         <v>671.4879001143654</v>
       </c>
     </row>
-    <row r="171" spans="4:18">
+    <row r="171" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D171">
         <f t="shared" si="10"/>
         <v>434</v>
@@ -33161,7 +33194,7 @@
         <v>675.44355796765137</v>
       </c>
     </row>
-    <row r="172" spans="4:18">
+    <row r="172" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D172">
         <f t="shared" si="10"/>
         <v>436</v>
@@ -33210,7 +33243,7 @@
         <v>679.39973506029571</v>
       </c>
     </row>
-    <row r="173" spans="4:18">
+    <row r="173" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D173">
         <f t="shared" si="10"/>
         <v>438</v>
@@ -33259,7 +33292,7 @@
         <v>683.35642237415163</v>
       </c>
     </row>
-    <row r="174" spans="4:18">
+    <row r="174" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D174">
         <f t="shared" si="10"/>
         <v>440</v>
@@ -33308,7 +33341,7 @@
         <v>687.31361109758336</v>
       </c>
     </row>
-    <row r="175" spans="4:18">
+    <row r="175" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D175">
         <f t="shared" si="10"/>
         <v>442</v>
@@ -33357,7 +33390,7 @@
         <v>691.27129261961977</v>
       </c>
     </row>
-    <row r="176" spans="4:18">
+    <row r="176" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D176">
         <f t="shared" si="10"/>
         <v>444</v>
@@ -33406,7 +33439,7 @@
         <v>695.22945852430621</v>
       </c>
     </row>
-    <row r="177" spans="4:18">
+    <row r="177" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D177">
         <f t="shared" si="10"/>
         <v>446</v>
@@ -33455,7 +33488,7 @@
         <v>699.18810058524309</v>
       </c>
     </row>
-    <row r="178" spans="4:18">
+    <row r="178" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D178">
         <f t="shared" si="10"/>
         <v>448</v>
@@ -33504,7 +33537,7 @@
         <v>703.1472107603073</v>
       </c>
     </row>
-    <row r="179" spans="4:18">
+    <row r="179" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D179">
         <f t="shared" si="10"/>
         <v>450</v>
@@ -33553,7 +33586,7 @@
         <v>707.10678118654755</v>
       </c>
     </row>
-    <row r="180" spans="4:18">
+    <row r="180" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D180">
         <f t="shared" si="10"/>
         <v>452</v>
@@ -33602,7 +33635,7 @@
         <v>711.06680417524763</v>
       </c>
     </row>
-    <row r="181" spans="4:18">
+    <row r="181" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D181">
         <f t="shared" si="10"/>
         <v>454</v>
@@ -33651,7 +33684,7 @@
         <v>715.02727220715155</v>
       </c>
     </row>
-    <row r="182" spans="4:18">
+    <row r="182" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D182">
         <f t="shared" si="10"/>
         <v>456</v>
@@ -33700,7 +33733,7 @@
         <v>718.98817792784325</v>
       </c>
     </row>
-    <row r="183" spans="4:18">
+    <row r="183" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D183">
         <f t="shared" si="10"/>
         <v>458</v>
@@ -33749,7 +33782,7 @@
         <v>722.94951414327682</v>
       </c>
     </row>
-    <row r="184" spans="4:18">
+    <row r="184" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D184">
         <f t="shared" si="10"/>
         <v>460</v>
@@ -33798,7 +33831,7 @@
         <v>726.91127381544993</v>
       </c>
     </row>
-    <row r="185" spans="4:18">
+    <row r="185" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D185">
         <f t="shared" si="10"/>
         <v>462</v>
@@ -33847,7 +33880,7 @@
         <v>730.87345005821635</v>
       </c>
     </row>
-    <row r="186" spans="4:18">
+    <row r="186" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D186">
         <f t="shared" si="10"/>
         <v>464</v>
@@ -33896,7 +33929,7 @@
         <v>734.83603613323157</v>
       </c>
     </row>
-    <row r="187" spans="4:18">
+    <row r="187" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D187">
         <f t="shared" si="10"/>
         <v>466</v>
@@ -33945,7 +33978,7 @@
         <v>738.79902544602749</v>
       </c>
     </row>
-    <row r="188" spans="4:18">
+    <row r="188" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D188">
         <f t="shared" si="10"/>
         <v>468</v>
@@ -33994,7 +34027,7 @@
         <v>742.76241154221043</v>
       </c>
     </row>
-    <row r="189" spans="4:18">
+    <row r="189" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D189">
         <f t="shared" si="10"/>
         <v>470</v>
@@ -34043,7 +34076,7 @@
         <v>746.72618810377878</v>
       </c>
     </row>
-    <row r="190" spans="4:18">
+    <row r="190" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D190">
         <f t="shared" si="10"/>
         <v>472</v>
@@ -34092,7 +34125,7 @@
         <v>750.69034894555557</v>
       </c>
     </row>
-    <row r="191" spans="4:18">
+    <row r="191" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D191">
         <f t="shared" si="10"/>
         <v>474</v>
@@ -34141,7 +34174,7 @@
         <v>754.65488801173217</v>
       </c>
     </row>
-    <row r="192" spans="4:18">
+    <row r="192" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D192">
         <f t="shared" si="10"/>
         <v>476</v>
@@ -34190,7 +34223,7 @@
         <v>758.6197993725184</v>
       </c>
     </row>
-    <row r="193" spans="4:18">
+    <row r="193" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D193">
         <f t="shared" si="10"/>
         <v>478</v>
@@ -34239,7 +34272,7 @@
         <v>762.5850772208961</v>
       </c>
     </row>
-    <row r="194" spans="4:18">
+    <row r="194" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D194">
         <f t="shared" si="10"/>
         <v>480</v>
@@ -34288,7 +34321,7 @@
         <v>766.55071586947201</v>
       </c>
     </row>
-    <row r="195" spans="4:18">
+    <row r="195" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D195">
         <f t="shared" si="10"/>
         <v>482</v>
@@ -34337,7 +34370,7 @@
         <v>770.5167097474266</v>
       </c>
     </row>
-    <row r="196" spans="4:18">
+    <row r="196" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D196">
         <f t="shared" si="10"/>
         <v>484</v>
@@ -34386,7 +34419,7 @@
         <v>774.48305339755495</v>
       </c>
     </row>
-    <row r="197" spans="4:18">
+    <row r="197" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D197">
         <f t="shared" si="10"/>
         <v>486</v>
@@ -34435,7 +34468,7 @@
         <v>778.44974147339792</v>
       </c>
     </row>
-    <row r="198" spans="4:18">
+    <row r="198" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D198">
         <f t="shared" ref="D198:D261" si="15">(E198+F198)*G198*H198</f>
         <v>488</v>
@@ -34484,7 +34517,7 @@
         <v>782.41676873645804</v>
       </c>
     </row>
-    <row r="199" spans="4:18">
+    <row r="199" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D199">
         <f t="shared" si="15"/>
         <v>490</v>
@@ -34533,7 +34566,7 @@
         <v>786.38413005350003</v>
       </c>
     </row>
-    <row r="200" spans="4:18">
+    <row r="200" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D200">
         <f t="shared" si="15"/>
         <v>492</v>
@@ -34582,7 +34615,7 @@
         <v>790.35182039393067</v>
       </c>
     </row>
-    <row r="201" spans="4:18">
+    <row r="201" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D201">
         <f t="shared" si="15"/>
         <v>494</v>
@@ -34631,7 +34664,7 @@
         <v>794.3198348272565</v>
       </c>
     </row>
-    <row r="202" spans="4:18">
+    <row r="202" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D202">
         <f t="shared" si="15"/>
         <v>496</v>
@@ -34680,7 +34713,7 @@
         <v>798.28816852061641</v>
       </c>
     </row>
-    <row r="203" spans="4:18">
+    <row r="203" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D203">
         <f t="shared" si="15"/>
         <v>498</v>
@@ -34729,7 +34762,7 @@
         <v>802.25681673638644</v>
       </c>
     </row>
-    <row r="204" spans="4:18">
+    <row r="204" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D204">
         <f t="shared" si="15"/>
         <v>500</v>
@@ -34778,7 +34811,7 @@
         <v>806.22577482985491</v>
       </c>
     </row>
-    <row r="205" spans="4:18">
+    <row r="205" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D205">
         <f t="shared" si="15"/>
         <v>502</v>
@@ -34827,7 +34860,7 @@
         <v>810.19503824696437</v>
       </c>
     </row>
-    <row r="206" spans="4:18">
+    <row r="206" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D206">
         <f t="shared" si="15"/>
         <v>504</v>
@@ -34876,7 +34909,7 @@
         <v>814.16460252211903</v>
       </c>
     </row>
-    <row r="207" spans="4:18">
+    <row r="207" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D207">
         <f t="shared" si="15"/>
         <v>506</v>
@@ -34925,7 +34958,7 @@
         <v>818.13446327605584</v>
       </c>
     </row>
-    <row r="208" spans="4:18">
+    <row r="208" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D208">
         <f t="shared" si="15"/>
         <v>508</v>
@@ -34974,7 +35007,7 @@
         <v>822.10461621377601</v>
       </c>
     </row>
-    <row r="209" spans="4:18">
+    <row r="209" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D209">
         <f t="shared" si="15"/>
         <v>510</v>
@@ -35023,7 +35056,7 @@
         <v>826.07505712253533</v>
       </c>
     </row>
-    <row r="210" spans="4:18">
+    <row r="210" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D210">
         <f t="shared" si="15"/>
         <v>512</v>
@@ -35072,7 +35105,7 @@
         <v>830.04578186989181</v>
       </c>
     </row>
-    <row r="211" spans="4:18">
+    <row r="211" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D211">
         <f t="shared" si="15"/>
         <v>514</v>
@@ -35121,7 +35154,7 @@
         <v>834.01678640180853</v>
       </c>
     </row>
-    <row r="212" spans="4:18">
+    <row r="212" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D212">
         <f t="shared" si="15"/>
         <v>516</v>
@@ -35170,7 +35203,7 @@
         <v>837.98806674080981</v>
       </c>
     </row>
-    <row r="213" spans="4:18">
+    <row r="213" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D213">
         <f t="shared" si="15"/>
         <v>518</v>
@@ -35219,7 +35252,7 @@
         <v>841.95961898418852</v>
       </c>
     </row>
-    <row r="214" spans="4:18">
+    <row r="214" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D214">
         <f t="shared" si="15"/>
         <v>520</v>
@@ -35268,7 +35301,7 @@
         <v>845.93143930226404</v>
       </c>
     </row>
-    <row r="215" spans="4:18">
+    <row r="215" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D215">
         <f t="shared" si="15"/>
         <v>522</v>
@@ -35317,7 +35350,7 @@
         <v>849.90352393668775</v>
       </c>
     </row>
-    <row r="216" spans="4:18">
+    <row r="216" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D216">
         <f t="shared" si="15"/>
         <v>524</v>
@@ -35366,7 +35399,7 @@
         <v>853.87586919879641</v>
       </c>
     </row>
-    <row r="217" spans="4:18">
+    <row r="217" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D217">
         <f t="shared" si="15"/>
         <v>526</v>
@@ -35415,7 +35448,7 @@
         <v>857.84847146800928</v>
       </c>
     </row>
-    <row r="218" spans="4:18">
+    <row r="218" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D218">
         <f t="shared" si="15"/>
         <v>528</v>
@@ -35464,7 +35497,7 @@
         <v>861.82132719027095</v>
       </c>
     </row>
-    <row r="219" spans="4:18">
+    <row r="219" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D219">
         <f t="shared" si="15"/>
         <v>530</v>
@@ -35513,7 +35546,7 @@
         <v>865.79443287653453</v>
       </c>
     </row>
-    <row r="220" spans="4:18">
+    <row r="220" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D220">
         <f t="shared" si="15"/>
         <v>532</v>
@@ -35562,7 +35595,7 @@
         <v>869.76778510128781</v>
       </c>
     </row>
-    <row r="221" spans="4:18">
+    <row r="221" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D221">
         <f t="shared" si="15"/>
         <v>534</v>
@@ -35611,7 +35644,7 @@
         <v>873.74138050111833</v>
       </c>
     </row>
-    <row r="222" spans="4:18">
+    <row r="222" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D222">
         <f t="shared" si="15"/>
         <v>536</v>
@@ -35660,7 +35693,7 @@
         <v>877.7152157733168</v>
       </c>
     </row>
-    <row r="223" spans="4:18">
+    <row r="223" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D223">
         <f t="shared" si="15"/>
         <v>538</v>
@@ -35709,7 +35742,7 @@
         <v>881.6892876745186</v>
       </c>
     </row>
-    <row r="224" spans="4:18">
+    <row r="224" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D224">
         <f t="shared" si="15"/>
         <v>540</v>
@@ -35758,7 +35791,7 @@
         <v>885.6635930193811</v>
       </c>
     </row>
-    <row r="225" spans="4:18">
+    <row r="225" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D225">
         <f t="shared" si="15"/>
         <v>542</v>
@@ -35807,7 +35840,7 @@
         <v>889.63812867929619</v>
       </c>
     </row>
-    <row r="226" spans="4:18">
+    <row r="226" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D226">
         <f t="shared" si="15"/>
         <v>544</v>
@@ -35856,7 +35889,7 @@
         <v>893.61289158113652</v>
       </c>
     </row>
-    <row r="227" spans="4:18">
+    <row r="227" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D227">
         <f t="shared" si="15"/>
         <v>546</v>
@@ -35905,7 +35938,7 @@
         <v>897.5878787060351</v>
       </c>
     </row>
-    <row r="228" spans="4:18">
+    <row r="228" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D228">
         <f t="shared" si="15"/>
         <v>548</v>
@@ -35954,7 +35987,7 @@
         <v>901.56308708819711</v>
       </c>
     </row>
-    <row r="229" spans="4:18">
+    <row r="229" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D229">
         <f t="shared" si="15"/>
         <v>550</v>
@@ -36003,7 +36036,7 @@
         <v>905.5385138137417</v>
       </c>
     </row>
-    <row r="230" spans="4:18">
+    <row r="230" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D230">
         <f t="shared" si="15"/>
         <v>552</v>
@@ -36052,7 +36085,7 @@
         <v>909.51415601957513</v>
       </c>
     </row>
-    <row r="231" spans="4:18">
+    <row r="231" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D231">
         <f t="shared" si="15"/>
         <v>554</v>
@@ -36101,7 +36134,7 @@
         <v>913.49001089229216</v>
       </c>
     </row>
-    <row r="232" spans="4:18">
+    <row r="232" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D232">
         <f t="shared" si="15"/>
         <v>556</v>
@@ -36150,7 +36183,7 @@
         <v>917.46607566710611</v>
       </c>
     </row>
-    <row r="233" spans="4:18">
+    <row r="233" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D233">
         <f t="shared" si="15"/>
         <v>558</v>
@@ -36199,7 +36232,7 @@
         <v>921.44234762680617</v>
       </c>
     </row>
-    <row r="234" spans="4:18">
+    <row r="234" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D234">
         <f t="shared" si="15"/>
         <v>560</v>
@@ -36248,7 +36281,7 @@
         <v>925.41882410074197</v>
       </c>
     </row>
-    <row r="235" spans="4:18">
+    <row r="235" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D235">
         <f t="shared" si="15"/>
         <v>562</v>
@@ -36297,7 +36330,7 @@
         <v>929.39550246383271</v>
       </c>
     </row>
-    <row r="236" spans="4:18">
+    <row r="236" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D236">
         <f t="shared" si="15"/>
         <v>564</v>
@@ -36346,7 +36379,7 @@
         <v>933.37238013560273</v>
       </c>
     </row>
-    <row r="237" spans="4:18">
+    <row r="237" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D237">
         <f t="shared" si="15"/>
         <v>566</v>
@@ -36395,7 +36428,7 @@
         <v>937.34945457924073</v>
       </c>
     </row>
-    <row r="238" spans="4:18">
+    <row r="238" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D238">
         <f t="shared" si="15"/>
         <v>568</v>
@@ -36444,7 +36477,7 @@
         <v>941.32672330068272</v>
       </c>
     </row>
-    <row r="239" spans="4:18">
+    <row r="239" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D239">
         <f t="shared" si="15"/>
         <v>570</v>
@@ -36493,7 +36526,7 @@
         <v>945.30418384771792</v>
       </c>
     </row>
-    <row r="240" spans="4:18">
+    <row r="240" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D240">
         <f t="shared" si="15"/>
         <v>572</v>
@@ -36542,7 +36575,7 @@
         <v>949.28183380911696</v>
       </c>
     </row>
-    <row r="241" spans="4:18">
+    <row r="241" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D241">
         <f t="shared" si="15"/>
         <v>574</v>
@@ -36591,7 +36624,7 @@
         <v>953.25967081378201</v>
       </c>
     </row>
-    <row r="242" spans="4:18">
+    <row r="242" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D242">
         <f t="shared" si="15"/>
         <v>576</v>
@@ -36640,7 +36673,7 @@
         <v>957.23769252991701</v>
       </c>
     </row>
-    <row r="243" spans="4:18">
+    <row r="243" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D243">
         <f t="shared" si="15"/>
         <v>578</v>
@@ -36689,7 +36722,7 @@
         <v>961.21589666421971</v>
       </c>
     </row>
-    <row r="244" spans="4:18">
+    <row r="244" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D244">
         <f t="shared" si="15"/>
         <v>580</v>
@@ -36738,7 +36771,7 @@
         <v>965.19428096109232</v>
       </c>
     </row>
-    <row r="245" spans="4:18">
+    <row r="245" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D245">
         <f t="shared" si="15"/>
         <v>582</v>
@@ -36787,7 +36820,7 @@
         <v>969.17284320187184</v>
       </c>
     </row>
-    <row r="246" spans="4:18">
+    <row r="246" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D246">
         <f t="shared" si="15"/>
         <v>584</v>
@@ -36836,7 +36869,7 @@
         <v>973.15158120407943</v>
       </c>
     </row>
-    <row r="247" spans="4:18">
+    <row r="247" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D247">
         <f t="shared" si="15"/>
         <v>586</v>
@@ -36885,7 +36918,7 @@
         <v>977.13049282068766</v>
       </c>
     </row>
-    <row r="248" spans="4:18">
+    <row r="248" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D248">
         <f t="shared" si="15"/>
         <v>588</v>
@@ -36934,7 +36967,7 @@
         <v>981.10957593940543</v>
       </c>
     </row>
-    <row r="249" spans="4:18">
+    <row r="249" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D249">
         <f t="shared" si="15"/>
         <v>590</v>
@@ -36983,7 +37016,7 @@
         <v>985.08882848198004</v>
       </c>
     </row>
-    <row r="250" spans="4:18">
+    <row r="250" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D250">
         <f t="shared" si="15"/>
         <v>592</v>
@@ -37032,7 +37065,7 @@
         <v>989.06824840351635</v>
       </c>
     </row>
-    <row r="251" spans="4:18">
+    <row r="251" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D251">
         <f t="shared" si="15"/>
         <v>594</v>
@@ -37081,7 +37114,7 @@
         <v>993.04783369181166</v>
       </c>
     </row>
-    <row r="252" spans="4:18">
+    <row r="252" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D252">
         <f t="shared" si="15"/>
         <v>596</v>
@@ -37130,7 +37163,7 @@
         <v>997.02758236670661</v>
       </c>
     </row>
-    <row r="253" spans="4:18">
+    <row r="253" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D253">
         <f t="shared" si="15"/>
         <v>598</v>
@@ -37179,7 +37212,7 @@
         <v>1001.0074924794519</v>
       </c>
     </row>
-    <row r="254" spans="4:18">
+    <row r="254" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D254">
         <f t="shared" si="15"/>
         <v>600</v>
@@ -37228,7 +37261,7 @@
         <v>1004.987562112089</v>
       </c>
     </row>
-    <row r="255" spans="4:18">
+    <row r="255" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D255">
         <f t="shared" si="15"/>
         <v>602</v>
@@ -37277,7 +37310,7 @@
         <v>1008.9677893768462</v>
       </c>
     </row>
-    <row r="256" spans="4:18">
+    <row r="256" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D256">
         <f t="shared" si="15"/>
         <v>604</v>
@@ -37326,7 +37359,7 @@
         <v>1012.9481724155486</v>
       </c>
     </row>
-    <row r="257" spans="4:18">
+    <row r="257" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D257">
         <f t="shared" si="15"/>
         <v>606</v>
@@ -37375,7 +37408,7 @@
         <v>1016.9287093990414</v>
       </c>
     </row>
-    <row r="258" spans="4:18">
+    <row r="258" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D258">
         <f t="shared" si="15"/>
         <v>608</v>
@@ -37424,7 +37457,7 @@
         <v>1020.9093985266273</v>
       </c>
     </row>
-    <row r="259" spans="4:18">
+    <row r="259" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D259">
         <f t="shared" si="15"/>
         <v>610</v>
@@ -37473,7 +37506,7 @@
         <v>1024.8902380255165</v>
       </c>
     </row>
-    <row r="260" spans="4:18">
+    <row r="260" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D260">
         <f t="shared" si="15"/>
         <v>612</v>
@@ -37522,7 +37555,7 @@
         <v>1028.8712261502894</v>
       </c>
     </row>
-    <row r="261" spans="4:18">
+    <row r="261" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D261">
         <f t="shared" si="15"/>
         <v>614</v>
@@ -37571,7 +37604,7 @@
         <v>1032.8523611823714</v>
       </c>
     </row>
-    <row r="262" spans="4:18">
+    <row r="262" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D262">
         <f t="shared" ref="D262:D304" si="20">(E262+F262)*G262*H262</f>
         <v>616</v>
@@ -37620,7 +37653,7 @@
         <v>1036.8336414295206</v>
       </c>
     </row>
-    <row r="263" spans="4:18">
+    <row r="263" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D263">
         <f t="shared" si="20"/>
         <v>618</v>
@@ -37669,7 +37702,7 @@
         <v>1040.8150652253262</v>
       </c>
     </row>
-    <row r="264" spans="4:18">
+    <row r="264" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D264">
         <f t="shared" si="20"/>
         <v>620</v>
@@ -37718,7 +37751,7 @@
         <v>1044.7966309287181</v>
       </c>
     </row>
-    <row r="265" spans="4:18">
+    <row r="265" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D265">
         <f t="shared" si="20"/>
         <v>622</v>
@@ -37767,7 +37800,7 @@
         <v>1048.7783369234892</v>
       </c>
     </row>
-    <row r="266" spans="4:18">
+    <row r="266" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D266">
         <f t="shared" si="20"/>
         <v>624</v>
@@ -37816,7 +37849,7 @@
         <v>1052.7601816178269</v>
       </c>
     </row>
-    <row r="267" spans="4:18">
+    <row r="267" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D267">
         <f t="shared" si="20"/>
         <v>626</v>
@@ -37865,7 +37898,7 @@
         <v>1056.7421634438554</v>
       </c>
     </row>
-    <row r="268" spans="4:18">
+    <row r="268" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D268">
         <f t="shared" si="20"/>
         <v>628</v>
@@ -37914,7 +37947,7 @@
         <v>1060.7242808571887</v>
       </c>
     </row>
-    <row r="269" spans="4:18">
+    <row r="269" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D269">
         <f t="shared" si="20"/>
         <v>630</v>
@@ -37963,7 +37996,7 @@
         <v>1064.7065323364932</v>
       </c>
     </row>
-    <row r="270" spans="4:18">
+    <row r="270" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D270">
         <f t="shared" si="20"/>
         <v>632</v>
@@ -38012,7 +38045,7 @@
         <v>1068.6889163830604</v>
       </c>
     </row>
-    <row r="271" spans="4:18">
+    <row r="271" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D271">
         <f t="shared" si="20"/>
         <v>634</v>
@@ -38061,7 +38094,7 @@
         <v>1072.6714315203888</v>
       </c>
     </row>
-    <row r="272" spans="4:18">
+    <row r="272" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D272">
         <f t="shared" si="20"/>
         <v>636</v>
@@ -38110,7 +38143,7 @@
         <v>1076.6540762937741</v>
       </c>
     </row>
-    <row r="273" spans="4:18">
+    <row r="273" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D273">
         <f t="shared" si="20"/>
         <v>638</v>
@@ -38159,7 +38192,7 @@
         <v>1080.6368492699107</v>
       </c>
     </row>
-    <row r="274" spans="4:18">
+    <row r="274" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D274">
         <f t="shared" si="20"/>
         <v>640</v>
@@ -38208,7 +38241,7 @@
         <v>1084.6197490364998</v>
       </c>
     </row>
-    <row r="275" spans="4:18">
+    <row r="275" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D275">
         <f t="shared" si="20"/>
         <v>642</v>
@@ -38257,7 +38290,7 @@
         <v>1088.6027742018666</v>
       </c>
     </row>
-    <row r="276" spans="4:18">
+    <row r="276" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D276">
         <f t="shared" si="20"/>
         <v>644</v>
@@ -38306,7 +38339,7 @@
         <v>1092.585923394586</v>
       </c>
     </row>
-    <row r="277" spans="4:18">
+    <row r="277" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D277">
         <f t="shared" si="20"/>
         <v>646</v>
@@ -38355,7 +38388,7 @@
         <v>1096.5691952631171</v>
       </c>
     </row>
-    <row r="278" spans="4:18">
+    <row r="278" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D278">
         <f t="shared" si="20"/>
         <v>648</v>
@@ -38404,7 +38437,7 @@
         <v>1100.5525884754441</v>
       </c>
     </row>
-    <row r="279" spans="4:18">
+    <row r="279" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D279">
         <f t="shared" si="20"/>
         <v>650</v>
@@ -38453,7 +38486,7 @@
         <v>1104.5361017187261</v>
       </c>
     </row>
-    <row r="280" spans="4:18">
+    <row r="280" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D280">
         <f t="shared" si="20"/>
         <v>652</v>
@@ -38502,7 +38535,7 @@
         <v>1108.519733698954</v>
       </c>
     </row>
-    <row r="281" spans="4:18">
+    <row r="281" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D281">
         <f t="shared" si="20"/>
         <v>654</v>
@@ -38551,7 +38584,7 @@
         <v>1112.5034831406147</v>
       </c>
     </row>
-    <row r="282" spans="4:18">
+    <row r="282" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D282">
         <f t="shared" si="20"/>
         <v>656</v>
@@ -38600,7 +38633,7 @@
         <v>1116.4873487863622</v>
       </c>
     </row>
-    <row r="283" spans="4:18">
+    <row r="283" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D283">
         <f t="shared" si="20"/>
         <v>658</v>
@@ -38649,7 +38682,7 @@
         <v>1120.4713293966963</v>
       </c>
     </row>
-    <row r="284" spans="4:18">
+    <row r="284" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D284">
         <f t="shared" si="20"/>
         <v>660</v>
@@ -38698,7 +38731,7 @@
         <v>1124.4554237496477</v>
       </c>
     </row>
-    <row r="285" spans="4:18">
+    <row r="285" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D285">
         <f t="shared" si="20"/>
         <v>662</v>
@@ -38747,7 +38780,7 @@
         <v>1128.4396306404699</v>
       </c>
     </row>
-    <row r="286" spans="4:18">
+    <row r="286" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D286">
         <f t="shared" si="20"/>
         <v>664</v>
@@ -38796,7 +38829,7 @@
         <v>1132.4239488813366</v>
       </c>
     </row>
-    <row r="287" spans="4:18">
+    <row r="287" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D287">
         <f t="shared" si="20"/>
         <v>666</v>
@@ -38845,7 +38878,7 @@
         <v>1136.4083773010475</v>
       </c>
     </row>
-    <row r="288" spans="4:18">
+    <row r="288" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D288">
         <f t="shared" si="20"/>
         <v>668</v>
@@ -38894,7 +38927,7 @@
         <v>1140.3929147447384</v>
       </c>
     </row>
-    <row r="289" spans="4:18">
+    <row r="289" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D289">
         <f t="shared" si="20"/>
         <v>670</v>
@@ -38943,7 +38976,7 @@
         <v>1144.3775600735974</v>
       </c>
     </row>
-    <row r="290" spans="4:18">
+    <row r="290" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D290">
         <f t="shared" si="20"/>
         <v>672</v>
@@ -38992,7 +39025,7 @@
         <v>1148.3623121645885</v>
       </c>
     </row>
-    <row r="291" spans="4:18">
+    <row r="291" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D291">
         <f t="shared" si="20"/>
         <v>674</v>
@@ -39041,7 +39074,7 @@
         <v>1152.3471699101794</v>
       </c>
     </row>
-    <row r="292" spans="4:18">
+    <row r="292" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D292">
         <f t="shared" si="20"/>
         <v>676</v>
@@ -39090,7 +39123,7 @@
         <v>1156.3321322180752</v>
       </c>
     </row>
-    <row r="293" spans="4:18">
+    <row r="293" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D293">
         <f t="shared" si="20"/>
         <v>678</v>
@@ -39139,7 +39172,7 @@
         <v>1160.3171980109578</v>
       </c>
     </row>
-    <row r="294" spans="4:18">
+    <row r="294" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D294">
         <f t="shared" si="20"/>
         <v>680</v>
@@ -39188,7 +39221,7 @@
         <v>1164.3023662262308</v>
       </c>
     </row>
-    <row r="295" spans="4:18">
+    <row r="295" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D295">
         <f t="shared" si="20"/>
         <v>682</v>
@@ -39237,7 +39270,7 @@
         <v>1168.2876358157694</v>
       </c>
     </row>
-    <row r="296" spans="4:18">
+    <row r="296" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D296">
         <f t="shared" si="20"/>
         <v>684</v>
@@ -39286,7 +39319,7 @@
         <v>1172.2730057456752</v>
       </c>
     </row>
-    <row r="297" spans="4:18">
+    <row r="297" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D297">
         <f t="shared" si="20"/>
         <v>686</v>
@@ -39335,7 +39368,7 @@
         <v>1176.2584749960358</v>
       </c>
     </row>
-    <row r="298" spans="4:18">
+    <row r="298" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D298">
         <f t="shared" si="20"/>
         <v>688</v>
@@ -39384,7 +39417,7 @@
         <v>1180.2440425606901</v>
       </c>
     </row>
-    <row r="299" spans="4:18">
+    <row r="299" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D299">
         <f t="shared" si="20"/>
         <v>690</v>
@@ -39433,7 +39466,7 @@
         <v>1184.2297074469971</v>
       </c>
     </row>
-    <row r="300" spans="4:18">
+    <row r="300" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D300">
         <f t="shared" si="20"/>
         <v>692</v>
@@ -39482,7 +39515,7 @@
         <v>1188.2154686756103</v>
       </c>
     </row>
-    <row r="301" spans="4:18">
+    <row r="301" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D301">
         <f t="shared" si="20"/>
         <v>694</v>
@@ -39531,7 +39564,7 @@
         <v>1192.2013252802565</v>
       </c>
     </row>
-    <row r="302" spans="4:18">
+    <row r="302" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D302">
         <f t="shared" si="20"/>
         <v>696</v>
@@ -39580,7 +39613,7 @@
         <v>1196.1872763075187</v>
       </c>
     </row>
-    <row r="303" spans="4:18">
+    <row r="303" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D303">
         <f t="shared" si="20"/>
         <v>698</v>
@@ -39629,7 +39662,7 @@
         <v>1200.1733208166227</v>
       </c>
     </row>
-    <row r="304" spans="4:18">
+    <row r="304" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D304">
         <f t="shared" si="20"/>
         <v>700</v>
@@ -39683,4 +39716,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E05B5-90DA-47AE-B001-5E7CF9BABAD6}">
+  <dimension ref="C4:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F6">
+        <f>E6/C6*1000/D6*100</f>
+        <v>75.675675675675677</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F8" si="0">E7/C7*1000/D7*100</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>95.65217391304347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/修論/発表スライド/w_model.xlsx
+++ b/修論/発表スライド/w_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\発表スライド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B53DED-992C-4590-973E-140238DADF1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F357DE6B-CBAE-456A-9A7A-59B5A79D46DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="24795" windowHeight="12660" activeTab="1" xr2:uid="{A0F2CA65-957B-498E-A101-ADAE12A8579B}"/>
+    <workbookView xWindow="2070" yWindow="465" windowWidth="24795" windowHeight="12660" activeTab="1" xr2:uid="{A0F2CA65-957B-498E-A101-ADAE12A8579B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>I</t>
     <phoneticPr fontId="1"/>
@@ -78,12 +78,40 @@
     <t>w'(um)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>3QW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10QW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma_sigma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w'_sigma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sigma(mA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,10 +128,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,15 +181,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -39720,81 +39770,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5E05B5-90DA-47AE-B001-5E7CF9BABAD6}">
-  <dimension ref="C4:F8"/>
+  <dimension ref="C4:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
+    <row r="4" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="1">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="6" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="2">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.37</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F6" s="1">
         <f>E6/C6*1000/D6*100</f>
-        <v>75.675675675675677</v>
+        <v>77.837837837837824</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6/D6/C6*100000</f>
+        <v>77.837837837837839</v>
+      </c>
+      <c r="H6" s="4">
+        <f>100000*0.0000001</f>
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f>1/C6*SQRT((I6/D6)^2+(E6/D6^2*H6)^2)*100000</f>
+        <v>4.6106214117233888</v>
+      </c>
+      <c r="K6" s="1">
+        <f>E6*1000</f>
+        <v>144</v>
+      </c>
+      <c r="L6" s="1">
+        <f>I6*1000</f>
+        <v>7.5900000000000007</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="1">
+    <row r="7" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.25</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.23</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" ref="F7:F8" si="0">E7/C7*1000/D7*100</f>
         <v>92</v>
       </c>
+      <c r="H7" s="6">
+        <f>0.0000000537*100000</f>
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.9899999999999997E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J14" si="1">1/C7*SQRT((I7/D7)^2+(E7/D7^2*H7)^2)*100000</f>
+        <v>3.4238610289554683</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K14" si="2">E7*1000</f>
+        <v>230</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="3">I7*1000</f>
+        <v>6.9899999999999993</v>
+      </c>
     </row>
-    <row r="8" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="1">
+    <row r="8" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="2">
         <v>2000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.23</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>95.65217391304347</v>
+      <c r="E8" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="F8" s="1">
+        <f>E8/C8*1000/D8*100</f>
+        <v>96.086956521739125</v>
+      </c>
+      <c r="H8" s="6">
+        <f>100000*0.000000541</f>
+        <v>5.4099999999999995E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.19E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>24.367768654495414</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>442</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="2">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2">
+        <f>0.0056643*100</f>
+        <v>0.56642999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f>0.001*167</f>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13/C13*1000/D13*100</f>
+        <v>58.965803364934779</v>
+      </c>
+      <c r="H13" s="5">
+        <f>100*0.000157</f>
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f>3.4*0.001</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J13" s="4">
+        <f>1/C13*SQRT((I13/D13)^2+(E13/D13^2*H13)^2)*100000</f>
+        <v>2.0279074860821416</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <f>100*0.0047546</f>
+        <v>0.47546000000000005</v>
+      </c>
+      <c r="E14" s="2">
+        <f>0.001*300</f>
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F15" si="4">E14/C14*1000/D14*100</f>
+        <v>63.096790476591082</v>
+      </c>
+      <c r="H14" s="5">
+        <f>100*0.00035</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <f>0.001*14.7</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>5.579648260745806</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="2">
+        <f>100*0.0057657</f>
+        <v>0.57657000000000003</v>
+      </c>
+      <c r="E15" s="2">
+        <f>0.001*362</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>31.392545571222918</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>